--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222fc68e-e9ec-4dff-8c0d-e3d3a31bf39d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2defbc72-f74c-4c3b-b999-ce5d493ddac2}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a85c50e4-1cb1-4b0e-9107-b4bf008a9c31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43bff086-5922-4713-aa79-ce0dad809719}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2defbc72-f74c-4c3b-b999-ce5d493ddac2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1d287997-3a6c-4572-80fb-668a514f5389}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43bff086-5922-4713-aa79-ce0dad809719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12178855-9519-4fa9-b8cd-a28eff7a917c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1d287997-3a6c-4572-80fb-668a514f5389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{de255fb9-25cb-46df-874d-168791973f81}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12178855-9519-4fa9-b8cd-a28eff7a917c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ed22a7e3-1260-4d1b-84ad-8227ed91f732}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{de255fb9-25cb-46df-874d-168791973f81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4025961b-8f8b-480b-b6cb-3fbe76784689}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ed22a7e3-1260-4d1b-84ad-8227ed91f732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7d350595-b589-43e8-a218-8bb60055bb7d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4025961b-8f8b-480b-b6cb-3fbe76784689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0162eaee-dbc6-4637-82a3-58e347a9dfff}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7d350595-b589-43e8-a218-8bb60055bb7d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f03ea989-4bfc-4f66-8d97-7d0b4e70fff1}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
+++ b/Data_Excel/Pepsi TJ0918 vibration PSD summary (2).xlsx
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7233d80c-8aaa-46ff-9c08-d8ab92bbdf7e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9584a071-2931-464c-aa81-651603f16b18}">
   <dimension ref="A1:P1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -51768,7 +51768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ac99fd5-8b26-4827-a69a-3649112e9e74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b8346fa-edb9-4774-9e85-148657cee000}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
